--- a/Assets/Excel/Facility.xlsx
+++ b/Assets/Excel/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>//Remark</t>
   </si>
@@ -38,6 +38,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>iconUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -47,13 +50,22 @@
     <t>萝卜田</t>
   </si>
   <si>
+    <t>imgFacility_carrotFarm</t>
+  </si>
+  <si>
     <t>青蛙卵池</t>
   </si>
   <si>
     <t>锅</t>
   </si>
   <si>
+    <t>imgFacility_pot</t>
+  </si>
+  <si>
     <t>盘子</t>
+  </si>
+  <si>
+    <t>imgFacility_plate</t>
   </si>
 </sst>
 </file>
@@ -984,41 +996,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="23.2727272727273" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1026,23 +1050,29 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3001</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Facility.xlsx
+++ b/Assets/Excel/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>//Remark</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>iconUrl</t>
+  </si>
+  <si>
+    <t>sizeX</t>
+  </si>
+  <si>
+    <t>sizeY</t>
   </si>
   <si>
     <t>int</t>
@@ -996,13 +1002,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="23.2727272727273" customWidth="1"/>
   </cols>
@@ -1012,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1022,57 +1028,93 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3001</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Facility.xlsx
+++ b/Assets/Excel/Facility.xlsx
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>//Remark</t>
   </si>
   <si>
+    <t>//占地面积</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -45,6 +48,12 @@
   </si>
   <si>
     <t>sizeY</t>
+  </si>
+  <si>
+    <t>outSlot</t>
+  </si>
+  <si>
+    <t>inSlot</t>
   </si>
   <si>
     <t>int</t>
@@ -1002,65 +1011,81 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="23.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="10.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1068,13 +1093,19 @@
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1082,16 +1113,22 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1099,21 +1136,33 @@
       <c r="E6">
         <v>2</v>
       </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3001</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/Facility.xlsx
+++ b/Assets/Excel/Facility.xlsx
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>//Remark</t>
   </si>
   <si>
     <t>//占地面积</t>
+  </si>
+  <si>
+    <t>//出孔</t>
+  </si>
+  <si>
+    <t>//入孔</t>
   </si>
   <si>
     <t>id</t>
@@ -1014,7 +1020,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1023,58 +1029,64 @@
     <col min="6" max="6" width="10.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1082,10 +1094,10 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1105,7 +1117,7 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1125,10 +1137,10 @@
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1137,10 +1149,10 @@
         <v>2</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1148,10 +1160,10 @@
         <v>3001</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>2</v>

--- a/Assets/Excel/Facility.xlsx
+++ b/Assets/Excel/Facility.xlsx
@@ -35,12 +35,12 @@
     <t>//占地面积</t>
   </si>
   <si>
-    <t>//出孔</t>
-  </si>
-  <si>
     <t>//入孔</t>
   </si>
   <si>
+    <t>//出孔，一般不会大于1</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -56,10 +56,10 @@
     <t>sizeY</t>
   </si>
   <si>
+    <t>inSlot</t>
+  </si>
+  <si>
     <t>outSlot</t>
-  </si>
-  <si>
-    <t>inSlot</t>
   </si>
   <si>
     <t>int</t>
@@ -1020,13 +1020,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="23.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="10.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="21.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1106,10 +1106,10 @@
         <v>2</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1126,10 +1126,10 @@
         <v>2</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1149,10 +1149,10 @@
         <v>2</v>
       </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1172,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Facility.xlsx
+++ b/Assets/Excel/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>//Remark</t>
   </si>
@@ -38,7 +38,7 @@
     <t>//入孔</t>
   </si>
   <si>
-    <t>//出孔，一般不会大于1</t>
+    <t>//种类</t>
   </si>
   <si>
     <t>id</t>
@@ -59,7 +59,7 @@
     <t>inSlot</t>
   </si>
   <si>
-    <t>outSlot</t>
+    <t>type</t>
   </si>
   <si>
     <t>int</t>
@@ -68,12 +68,18 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum|FacilityType</t>
+  </si>
+  <si>
     <t>萝卜田</t>
   </si>
   <si>
     <t>imgFacility_carrotFarm</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>青蛙卵池</t>
   </si>
   <si>
@@ -83,10 +89,16 @@
     <t>imgFacility_pot</t>
   </si>
   <si>
+    <t>Mixer</t>
+  </si>
+  <si>
     <t>盘子</t>
   </si>
   <si>
     <t>imgFacility_plate</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -702,8 +714,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,13 +1035,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="23.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="21.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="21.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1085,8 +1100,8 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1094,10 +1109,10 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1108,8 +1123,8 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1117,7 +1132,7 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1128,8 +1143,8 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1137,10 +1152,10 @@
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1151,8 +1166,8 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1160,10 +1175,10 @@
         <v>3001</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1174,8 +1189,8 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="G7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Facility.xlsx
+++ b/Assets/Excel/Facility.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19220" windowHeight="11480"/>
+    <workbookView windowWidth="13650" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="Facility" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>//Remark</t>
   </si>
   <si>
+    <t>//Source类型专属</t>
+  </si>
+  <si>
     <t>//占地面积</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>iconUrl</t>
+  </si>
+  <si>
+    <t>sourceFoodID</t>
   </si>
   <si>
     <t>sizeX</t>
@@ -1032,165 +1038,186 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="23.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="21.2727272727273" customWidth="1"/>
+    <col min="3" max="4" width="23.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="21.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="H4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
+      <c r="H6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3001</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
         <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Facility.xlsx
+++ b/Assets/Excel/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>//Remark</t>
   </si>
@@ -86,7 +86,10 @@
     <t>Source</t>
   </si>
   <si>
-    <t>青蛙卵池</t>
+    <t>池塘</t>
+  </si>
+  <si>
+    <t>imgFacility_pool</t>
   </si>
   <si>
     <t>锅</t>
@@ -96,6 +99,12 @@
   </si>
   <si>
     <t>Mixer</t>
+  </si>
+  <si>
+    <t>核废水</t>
+  </si>
+  <si>
+    <t>imgFacility_nucleus</t>
   </si>
   <si>
     <t>盘子</t>
@@ -1038,13 +1047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="4" width="23.2727272727273" customWidth="1"/>
     <col min="8" max="8" width="21.2727272727273" customWidth="1"/>
@@ -1152,6 +1161,9 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
       <c r="D5">
         <v>1002</v>
       </c>
@@ -1173,10 +1185,10 @@
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -1191,18 +1203,18 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1211,13 +1223,39 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>3001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
